--- a/biology/Zoologie/Agapanthia_danilevskyi/Agapanthia_danilevskyi.xlsx
+++ b/biology/Zoologie/Agapanthia_danilevskyi/Agapanthia_danilevskyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agapanthia danilevskyi est une espèce de Coléoptères de la famille des Cerambycidae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Agapanthia danilevskyi n'est connue que du Sud du Kazakhstan. 
 </t>
@@ -568,10 +584,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Agapanthia danilevskyi Lazarev, 2013[1],[2]. Il a pour synonyme « Agapanthia (Epoptes) danilevskyi »[3].
-L'holotype a été capturé en 1980 sur la rive gauche du Syr-Daria (dans le Sud du Kazakhstan) à une altitude de 260 m en face de Chardara (41° 16′ N, 67° 54′ E)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Agapanthia danilevskyi Lazarev, 2013,. Il a pour synonyme « Agapanthia (Epoptes) danilevskyi ».
+L'holotype a été capturé en 1980 sur la rive gauche du Syr-Daria (dans le Sud du Kazakhstan) à une altitude de 260 m en face de Chardara (41° 16′ N, 67° 54′ E).
 </t>
         </is>
       </c>
@@ -600,9 +618,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, danilevskyi, lui a été donnée en l'honneur de l'entomologiste russe Mikhail Leontievich Danilevsky (d) (1948-) qui a confié l'holotype à l'auteur pour étude[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, danilevskyi, lui a été donnée en l'honneur de l'entomologiste russe Mikhail Leontievich Danilevsky (d) (1948-) qui a confié l'holotype à l'auteur pour étude.
 </t>
         </is>
       </c>
@@ -631,7 +651,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) M.A. Lazarev, « New species of Agapanthia danilevskyi from South Kazakhstan (Coleoptera, Cerambycidae) », Humanity space. International almanac, Russie, vol. 2, no 1,‎ mars 2013, p. 235-237 (ISSN 2226-0773, DOI 10.24412/FhgQNBoVMkU, lire en ligne, consulté le 10 avril 2024).</t>
         </is>
